--- a/ignore/World bank gdp.xlsx
+++ b/ignore/World bank gdp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects and practice\PBI practice\Covid-19 project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects and practice\Git projects\Visalisations\Covid-19-analysis\ignore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9738E123-D164-4C3A-B031-66914FEF0732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3896688-1EA7-4F44-9B8B-9B21B293626D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2435,7 +2435,7 @@
   <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
